--- a/pred_ohlcv/54_21/2019-10-27 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 CON ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>2350932.808</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3803875.7338</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>7888655.882141992</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>10189684.36874199</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 CON ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>2350932.808</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3803875.7338</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>8007162.080141988</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>7888655.882141992</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>9045602.919809196</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
